--- a/3 четверть_4_Java Spring.xlsx
+++ b/3 четверть_4_Java Spring.xlsx
@@ -1,71 +1,376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A5E0B-E2FB-4FE6-97F0-EA4215DA2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
+    <sheet name="Название 1-3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Урок 1 часть 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Урок 1 часть 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основные понятия Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 12 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POM (Project Object Model)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+это XML-файл, который описывает проект и его настройки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Зависимости</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+это внешние библиотеки или модули, необходимые для корректной работы вашего приложения.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Плагины</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+это компоненты, которые расширяют функциональность Maven, добавляя
+дополнительные задачи и интеграцию с другими инструментами.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Жизненный цикл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+это последовательность фаз, определяющих процесс сборки проекта.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Структура проекта Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандартная структура проекта Maven состоит из следующих каталогов и файлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src/main/java: Здесь хранится исходный код вашего приложения.
+src/main/resources: Здесь находятся ресурсы вашего приложения, такие как файлы конфигурации, изображения и т. д.
+src/test/java: Здесь размещается исходный код тестов вашего приложения.
+src/test/resources: Здесь хранятся ресурсы, связанные с тестированием.
+pom.xml: Это основной файл конфигурации Maven, содержащий информацию о проекте и его настройках.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жизненные циклы Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean
+Этот жизненный цикл отвечает за удаление всех файлов, созданных в результате предыдущей сборки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default
+Этот жизненный цикл является основным и отвечает за сборку, тестирование, пакетирование и развертывание вашего проекта. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site
+Этот жизненный цикл отвечает за создание документации и сайта вашего проекта. Он включает фазы pre-site, site и post-site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основные фазы жизненного цикла default</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Validate: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе проверяется корректность настроек проекта и отсутствие проблем с конфигурацией.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compile: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе исходный код проекта компилируется в байт-код Java.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе выполняются тесты вашего приложения. Обратите внимание, что этот этап не вызывает остановку сборки в случае неудачных тестов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Package: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе создается артефакт вашего проекта (например, JAR-файл).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе выполняются проверки, чтобы убедиться, что пакет соответствует качеству и критериям проекта.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Install: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе артефакт вашего проекта устанавливается в локальный репозиторий Maven, чтобы быть доступным для других проектов на вашем компьютере.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Deploy: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В этой фазе артефакт вашего проекта развертывается в удаленном репозитории, чтобы быть доступным для других разработчиков и команд.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Зависимости Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зависимости — это внешние библиотеки или модули, которые требуются для корректной работы
+вашего приложения. В Maven зависимости объявляются в POM-файле, и система автоматически
+управляет ими, загружая необходимые артефакты из репозиториев и интегрируя их в ваш проект. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Репозитории Maven</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Репозитории — это централизованные хранилища артефактов, таких как библиотеки и плагины. В Maven
+существует три типа репозиториев: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">локальный, центральный, удаленный.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Без указания репозиториев в pom, зависимости не будут подтягиваться.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Плагины Maven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плагины — это расширения Maven, предоставляющие дополнительные функции и возможности для
+управления процессом сборки вашего проекта. Плагины состоят из одной или нескольких задач (goals), которые могут быть вызваны в различных фазах жизненного цикла сборки.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,14 +379,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -95,34 +406,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,15 +448,393 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3371849</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4678135" cy="1512530"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1232104238" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="5777592" y="9310006"/>
+          <a:ext cx="4678135" cy="1512530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4675413" cy="1339443"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1695997148" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="5780314" y="11048999"/>
+          <a:ext cx="4675413" cy="1339443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4180114" cy="1878611"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="527752812" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="5780314" y="12692742"/>
+          <a:ext cx="4180114" cy="1878611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,74 +876,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,7 +891,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -285,7 +917,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -337,16 +969,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -362,7 +1006,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -393,88 +1037,196 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2ADE5-9A6F-4274-9C48-F960B495367E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A19" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="36"/>
+    <col customWidth="1" min="2" max="2" style="2" width="50.54296875"/>
+    <col customWidth="1" min="3" max="3" style="2" width="71.1796875"/>
+    <col customWidth="1" min="4" max="4" style="1" width="56.453125"/>
+    <col customWidth="1" min="5" max="5" style="3" width="6.26953125"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="43.26953125"/>
+    <col customWidth="1" min="7" max="7" style="2" width="55.08984375"/>
+    <col customWidth="1" min="8" max="8" style="1" width="67.90625"/>
+    <col customWidth="1" min="9" max="9" style="1" width="64.36328125"/>
+    <col customWidth="1" min="10" max="10" style="3" width="7.81640625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="39.26953125"/>
+    <col customWidth="1" min="12" max="12" style="1" width="48.90625"/>
+    <col customWidth="1" min="13" max="13" style="1" width="72.6328125"/>
+    <col customWidth="1" min="14" max="14" style="1" width="43.90625"/>
+    <col customWidth="1" min="15" max="15" style="3" width="7.81640625"/>
+    <col customWidth="1" min="16" max="16" style="2" width="56.81640625"/>
+    <col customWidth="1" min="17" max="17" style="2" width="46.7265625"/>
+    <col customWidth="1" min="18" max="18" style="2" width="62.90625"/>
+    <col customWidth="1" min="19" max="19" style="1" width="49.1796875"/>
+    <col min="20" max="20" style="4" width="8.7265625"/>
+    <col customWidth="1" min="21" max="21" style="2" width="67.7265625"/>
+    <col customWidth="1" min="22" max="22" style="1" width="68.36328125"/>
+    <col customWidth="1" min="23" max="24" style="1" width="59.36328125"/>
+    <col customWidth="1" min="25" max="25" style="1" width="59.6328125"/>
+    <col customWidth="1" min="26" max="26" style="1" width="99.453125"/>
+    <col customWidth="1" min="27" max="27" style="1" width="41.26953125"/>
+    <col min="28" max="16384" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
+    <row r="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="2"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5">
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75">
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75">
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5">
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5">
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="99.75">
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75">
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75">
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="213.75">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="128.25">
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" ht="114">
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="156.75">
+      <c r="B23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="10"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="10" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="1200" verticalDpi="1200" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>